--- a/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2015-09-16.xlsx
+++ b/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2015-09-16.xlsx
@@ -1515,11 +1515,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="21" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -21463,7 +21463,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -21516,10 +21516,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="13"/>
       <c r="F2" s="24"/>
       <c r="G2" s="14"/>
@@ -21577,10 +21577,10 @@
       <c r="B4" s="12">
         <v>12</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="15">
         <f>VLOOKUP(C4,RA!B8:D36,3,0)</f>
         <v>489009.66330000001</v>
@@ -21619,10 +21619,10 @@
       <c r="B5" s="12">
         <v>13</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="15">
         <f>VLOOKUP(C5,RA!B8:D37,3,0)</f>
         <v>66436.469899999996</v>
@@ -21662,10 +21662,10 @@
       <c r="B6" s="12">
         <v>14</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="41"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="15">
         <f>VLOOKUP(C6,RA!B10:D38,3,0)</f>
         <v>89058.154399999999</v>
@@ -21705,10 +21705,10 @@
       <c r="B7" s="12">
         <v>15</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="41"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="15">
         <f>VLOOKUP(C7,RA!B10:D39,3,0)</f>
         <v>38027.423699999999</v>
@@ -21748,10 +21748,10 @@
       <c r="B8" s="12">
         <v>16</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="41"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="15">
         <f>VLOOKUP(C8,RA!B12:D39,3,0)</f>
         <v>79484.541800000006</v>
@@ -21791,10 +21791,10 @@
       <c r="B9" s="12">
         <v>17</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="41"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="15">
         <f>VLOOKUP(C9,RA!B12:D40,3,0)</f>
         <v>183583.3259</v>
@@ -21834,10 +21834,10 @@
       <c r="B10" s="12">
         <v>18</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="41"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="15">
         <f>VLOOKUP(C10,RA!B14:D41,3,0)</f>
         <v>84624.701100000006</v>
@@ -21877,10 +21877,10 @@
       <c r="B11" s="12">
         <v>19</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="41"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="15">
         <f>VLOOKUP(C11,RA!B14:D42,3,0)</f>
         <v>48301.072899999999</v>
@@ -21920,10 +21920,10 @@
       <c r="B12" s="12">
         <v>21</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="15">
         <f>VLOOKUP(C12,RA!B16:D43,3,0)</f>
         <v>717053.84779999999</v>
@@ -21963,10 +21963,10 @@
       <c r="B13" s="12">
         <v>22</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="41"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="15">
         <f>VLOOKUP(C13,RA!B16:D44,3,0)</f>
         <v>722338.36880000005</v>
@@ -22006,10 +22006,10 @@
       <c r="B14" s="12">
         <v>23</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="41"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="15">
         <f>VLOOKUP(C14,RA!B18:D45,3,0)</f>
         <v>1113729.0279000001</v>
@@ -22049,10 +22049,10 @@
       <c r="B15" s="12">
         <v>24</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="41"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="15">
         <f>VLOOKUP(C15,RA!B18:D46,3,0)</f>
         <v>529276.98439999996</v>
@@ -22092,10 +22092,10 @@
       <c r="B16" s="12">
         <v>25</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="41"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="15">
         <f>VLOOKUP(C16,RA!B20:D47,3,0)</f>
         <v>870233.6557</v>
@@ -22135,10 +22135,10 @@
       <c r="B17" s="12">
         <v>26</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="41"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="15">
         <f>VLOOKUP(C17,RA!B20:D48,3,0)</f>
         <v>279934.97639999999</v>
@@ -22178,10 +22178,10 @@
       <c r="B18" s="12">
         <v>27</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="41"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="15">
         <f>VLOOKUP(C18,RA!B22:D49,3,0)</f>
         <v>1019165.3939</v>
@@ -22221,10 +22221,10 @@
       <c r="B19" s="12">
         <v>29</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="41"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="15">
         <f>VLOOKUP(C19,RA!B22:D50,3,0)</f>
         <v>2113012.6488999999</v>
@@ -22264,10 +22264,10 @@
       <c r="B20" s="12">
         <v>31</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="41"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="15">
         <f>VLOOKUP(C20,RA!B24:D51,3,0)</f>
         <v>190229.4791</v>
@@ -22307,10 +22307,10 @@
       <c r="B21" s="12">
         <v>32</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="15">
         <f>VLOOKUP(C21,RA!B24:D52,3,0)</f>
         <v>213647.98310000001</v>
@@ -22350,10 +22350,10 @@
       <c r="B22" s="12">
         <v>33</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="41"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="15">
         <f>VLOOKUP(C22,RA!B26:D53,3,0)</f>
         <v>447980.52289999998</v>
@@ -22393,10 +22393,10 @@
       <c r="B23" s="12">
         <v>34</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="41"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="15">
         <f>VLOOKUP(C23,RA!B26:D54,3,0)</f>
         <v>238710.88430000001</v>
@@ -22436,10 +22436,10 @@
       <c r="B24" s="12">
         <v>35</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="41"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="15">
         <f>VLOOKUP(C24,RA!B28:D55,3,0)</f>
         <v>854002.25910000002</v>
@@ -22479,10 +22479,10 @@
       <c r="B25" s="12">
         <v>36</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="41"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="15">
         <f>VLOOKUP(C25,RA!B28:D56,3,0)</f>
         <v>644959.79870000004</v>
@@ -22522,10 +22522,10 @@
       <c r="B26" s="12">
         <v>37</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="41"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="15">
         <f>VLOOKUP(C26,RA!B30:D57,3,0)</f>
         <v>896013.53339999996</v>
@@ -22565,10 +22565,10 @@
       <c r="B27" s="12">
         <v>38</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="41"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="15">
         <f>VLOOKUP(C27,RA!B30:D58,3,0)</f>
         <v>809027.58990000002</v>
@@ -22608,10 +22608,10 @@
       <c r="B28" s="12">
         <v>39</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="41"/>
+      <c r="D28" s="42"/>
       <c r="E28" s="15">
         <f>VLOOKUP(C28,RA!B32:D59,3,0)</f>
         <v>84820.558900000004</v>
@@ -22651,10 +22651,10 @@
       <c r="B29" s="12">
         <v>40</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="41"/>
+      <c r="D29" s="42"/>
       <c r="E29" s="15">
         <f>VLOOKUP(C29,RA!B32:D60,3,0)</f>
         <v>0</v>
@@ -22694,10 +22694,10 @@
       <c r="B30" s="12">
         <v>42</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="41"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="15">
         <f>VLOOKUP(C30,RA!B34:D62,3,0)</f>
         <v>131926.554</v>
@@ -22779,10 +22779,10 @@
       <c r="B32" s="12">
         <v>71</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="41"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="15">
         <f>VLOOKUP(C32,RA!B34:D63,3,0)</f>
         <v>129203.45</v>
@@ -22822,10 +22822,10 @@
       <c r="B33" s="12">
         <v>72</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="41"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="15">
         <f>VLOOKUP(C33,RA!B34:D64,3,0)</f>
         <v>9867.5400000000009</v>
@@ -22865,10 +22865,10 @@
       <c r="B34" s="12">
         <v>73</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="41"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="15">
         <f>VLOOKUP(C34,RA!B35:D65,3,0)</f>
         <v>52506.9</v>
@@ -22908,10 +22908,10 @@
       <c r="B35" s="12">
         <v>74</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="41"/>
+      <c r="D35" s="42"/>
       <c r="E35" s="15">
         <f>VLOOKUP(C35,RA!B36:D66,3,0)</f>
         <v>0</v>
@@ -22950,10 +22950,10 @@
       <c r="B36" s="12">
         <v>75</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="41"/>
+      <c r="D36" s="42"/>
       <c r="E36" s="15">
         <f>VLOOKUP(C36,RA!B8:D66,3,0)</f>
         <v>127371.7944</v>
@@ -22993,10 +22993,10 @@
       <c r="B37" s="12">
         <v>76</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="41"/>
+      <c r="D37" s="42"/>
       <c r="E37" s="15">
         <f>VLOOKUP(C37,RA!B8:D67,3,0)</f>
         <v>231961.39350000001</v>
@@ -23036,10 +23036,10 @@
       <c r="B38" s="12">
         <v>77</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="41"/>
+      <c r="D38" s="42"/>
       <c r="E38" s="15">
         <f>VLOOKUP(C38,RA!B9:D68,3,0)</f>
         <v>46011.98</v>
@@ -23079,10 +23079,10 @@
       <c r="B39" s="12">
         <v>78</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="41"/>
+      <c r="D39" s="42"/>
       <c r="E39" s="15">
         <f>VLOOKUP(C39,RA!B10:D69,3,0)</f>
         <v>37024.81</v>
@@ -23122,10 +23122,10 @@
       <c r="B40" s="12">
         <v>99</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="41"/>
+      <c r="D40" s="42"/>
       <c r="E40" s="15">
         <f>VLOOKUP(C40,RA!B8:D70,3,0)</f>
         <v>22641.3298</v>
@@ -23162,6 +23162,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -23178,30 +23202,6 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23215,7 +23215,7 @@
   <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A1:W45"/>
+      <selection sqref="A1:W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -25805,6 +25805,18 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -25814,23 +25826,11 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
